--- a/artfynd/A 31894-2022.xlsx
+++ b/artfynd/A 31894-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111733276</v>
+        <v>111733255</v>
       </c>
       <c r="B2" t="n">
-        <v>86161</v>
+        <v>86145</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4383</v>
+        <v>4374</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Småvaxskivling</t>
+          <t>Gul vaxskivling</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hygrocybe insipida</t>
+          <t>Hygrocybe chlorophana</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(J.E.Lange) M.M.Moser</t>
+          <t>(Fr.) Wünsche</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111733255</v>
+        <v>111733276</v>
       </c>
       <c r="B3" t="n">
-        <v>86145</v>
+        <v>86161</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4374</v>
+        <v>4383</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gul vaxskivling</t>
+          <t>Småvaxskivling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hygrocybe chlorophana</t>
+          <t>Hygrocybe insipida</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Wünsche</t>
+          <t>(J.E.Lange) M.M.Moser</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>

--- a/artfynd/A 31894-2022.xlsx
+++ b/artfynd/A 31894-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111733255</v>
+        <v>111733276</v>
       </c>
       <c r="B2" t="n">
-        <v>86145</v>
+        <v>86161</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4374</v>
+        <v>4383</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gul vaxskivling</t>
+          <t>Småvaxskivling</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hygrocybe chlorophana</t>
+          <t>Hygrocybe insipida</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Wünsche</t>
+          <t>(J.E.Lange) M.M.Moser</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111733276</v>
+        <v>111733255</v>
       </c>
       <c r="B3" t="n">
-        <v>86161</v>
+        <v>86145</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4383</v>
+        <v>4374</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Småvaxskivling</t>
+          <t>Gul vaxskivling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hygrocybe insipida</t>
+          <t>Hygrocybe chlorophana</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(J.E.Lange) M.M.Moser</t>
+          <t>(Fr.) Wünsche</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>

--- a/artfynd/A 31894-2022.xlsx
+++ b/artfynd/A 31894-2022.xlsx
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>549104.2258686039</v>
+        <v>549104</v>
       </c>
       <c r="R2" t="n">
-        <v>6531856.239666501</v>
+        <v>6531856</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,19 +756,9 @@
           <t>2023-08-18</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-18</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -839,10 +829,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>549104.2258686039</v>
+        <v>549104</v>
       </c>
       <c r="R3" t="n">
-        <v>6531856.239666501</v>
+        <v>6531856</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -872,19 +862,9 @@
           <t>2023-08-18</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-18</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
